--- a/data/caracteristicas.xlsx
+++ b/data/caracteristicas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lionellopez/my_streamlit_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lionellopez/Documents/GitHub/my_streamlit_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CB617E-5FC5-3C4C-A654-9C257F390EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C8406-C008-4E4B-BC4C-291C4C982D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13980" yWindow="8400" windowWidth="25640" windowHeight="14440" xr2:uid="{08B3FBA7-27E8-0241-BDD4-EACD595094AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="209">
   <si>
     <t>Item</t>
   </si>
@@ -53,9 +53,6 @@
     <t>CV</t>
   </si>
   <si>
-    <t>12200170746</t>
-  </si>
-  <si>
     <t>Toluca</t>
   </si>
   <si>
@@ -68,297 +65,156 @@
     <t>C</t>
   </si>
   <si>
-    <t>12000079084</t>
-  </si>
-  <si>
     <t>Aceite aerosol quimplex S/M 4059 H1</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>12200000488</t>
-  </si>
-  <si>
     <t>Cadena_Enga ANG 19S424</t>
   </si>
   <si>
-    <t>12000000240</t>
-  </si>
-  <si>
     <t>Cinta_aislar SCO 33</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>12200063566</t>
-  </si>
-  <si>
     <t>Variador_DAN 131F0435 VLT FC 302</t>
   </si>
   <si>
-    <t>12000061680</t>
-  </si>
-  <si>
     <t>Piston_eleva. Lleb KHS 58803808S003</t>
   </si>
   <si>
-    <t>12200067646</t>
-  </si>
-  <si>
     <t>Jgo d/bandas Empa OCM 3.501031 02</t>
   </si>
   <si>
-    <t>12200159753</t>
-  </si>
-  <si>
     <t>Caja bastidor KRO 00901048033 </t>
   </si>
   <si>
-    <t>12000120609</t>
-  </si>
-  <si>
     <t>Muelle KRO 0-900-78-556-4</t>
   </si>
   <si>
-    <t>12200005596</t>
-  </si>
-  <si>
     <t>Cadena doble MOR RC-80 D1</t>
   </si>
   <si>
-    <t>12000081823</t>
-  </si>
-  <si>
     <t>Junta_anular Lleb KHS X58899763</t>
   </si>
   <si>
-    <t>12000036924</t>
-  </si>
-  <si>
     <t>Aceite MOB SHC 630 iso 220 sintetico</t>
   </si>
   <si>
-    <t>12000079080</t>
-  </si>
-  <si>
     <t>Rodamiento_No- 6214 C3</t>
   </si>
   <si>
-    <t>12000080639</t>
-  </si>
-  <si>
     <t>Mordaza-Empl KRO 8560320693</t>
   </si>
   <si>
-    <t>12200159755</t>
-  </si>
-  <si>
     <t>Cabezal superior KRO 0902114209</t>
   </si>
   <si>
-    <t>12000117831</t>
-  </si>
-  <si>
     <t>Eje Lleb KRO 1.070.25.076.1</t>
   </si>
   <si>
-    <t>12000075238</t>
-  </si>
-  <si>
     <t>Aceite MOB DTE 24 hidraulico</t>
   </si>
   <si>
-    <t>12000000142</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6004 2RSH</t>
   </si>
   <si>
     <t>Aguja_Lleb KHS 588.11.8565002</t>
   </si>
   <si>
-    <t>12000071659</t>
-  </si>
-  <si>
     <t>Rodamiento SKF No- 6316 ZZ</t>
   </si>
   <si>
     <t>Rodamiento KHS TK-5760 X57099171</t>
   </si>
   <si>
-    <t>12000033050</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6002 2RSH</t>
   </si>
   <si>
-    <t>12000000239</t>
-  </si>
-  <si>
     <t>Cinta_aislar SCO 23</t>
   </si>
   <si>
-    <t>12000040319</t>
-  </si>
-  <si>
     <t>Perno_Empa KIS 0064779000</t>
   </si>
   <si>
-    <t>12200158874</t>
-  </si>
-  <si>
     <t>Reten 180-160 Mezc TEP 90523-2047</t>
   </si>
   <si>
-    <t>12000187742</t>
-  </si>
-  <si>
     <t>Rodamiento Llen MEL TRALDF07063000</t>
   </si>
   <si>
-    <t>12000046146</t>
-  </si>
-  <si>
     <t>Empaque_Lleb KHS h.202.33.01.352/3</t>
   </si>
   <si>
-    <t>12200044764</t>
-  </si>
-  <si>
     <t>Rodamiento IKA R16-109315 d/aguja</t>
   </si>
   <si>
-    <t>12000040353</t>
-  </si>
-  <si>
     <t>Boquilla_Lleb KHS H.202.33.07.619/4</t>
   </si>
   <si>
-    <t>12000069958</t>
-  </si>
-  <si>
     <t>Cadena Doble CFB Regina 08 B2</t>
   </si>
   <si>
-    <t>12000010228</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 6309 2Z/C3</t>
   </si>
   <si>
-    <t>12000040002</t>
-  </si>
-  <si>
     <t>Aceite MOB DTE24</t>
   </si>
   <si>
-    <t>12200016864</t>
-  </si>
-  <si>
     <t>Abrazadera Llen KRO 901721027</t>
   </si>
   <si>
-    <t>12200294567</t>
-  </si>
-  <si>
     <t>Bomba P203-8k 120v LIN 244-44761-6</t>
   </si>
   <si>
-    <t>12200291899</t>
-  </si>
-  <si>
     <t>Tuberia EMPA KHS 0727021101</t>
   </si>
   <si>
-    <t>12000051384</t>
-  </si>
-  <si>
     <t>Uneta_Trab INT SER-900-6-gris</t>
   </si>
   <si>
-    <t>12000093137</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 6022 2RS</t>
   </si>
   <si>
-    <t>12000117186</t>
-  </si>
-  <si>
     <t>Fuelle Lleb KRO 8900044380</t>
   </si>
   <si>
-    <t>12000010219</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6204 2RSH C3</t>
   </si>
   <si>
-    <t>12200002002</t>
-  </si>
-  <si>
     <t>Cadena Envo SMI MA500538</t>
   </si>
   <si>
-    <t>12200000350</t>
-  </si>
-  <si>
     <t>Rodamiento_No- 32013X/Q con</t>
   </si>
   <si>
-    <t>12000012083</t>
-  </si>
-  <si>
     <t>Cadena_rc. LIB paso 60</t>
   </si>
   <si>
-    <t>12000075287</t>
-  </si>
-  <si>
     <t>Grasa_KLU Paraliq GA 351</t>
   </si>
   <si>
-    <t>12000058723</t>
-  </si>
-  <si>
     <t>Rodamiento_No- 3309 D</t>
   </si>
   <si>
-    <t>12200159754</t>
-  </si>
-  <si>
     <t>Distribuidor central KRO 0900699512</t>
   </si>
   <si>
-    <t>12200016865</t>
-  </si>
-  <si>
     <t>Abrazadera Llen KRO 901721026</t>
   </si>
   <si>
-    <t>12000054987</t>
-  </si>
-  <si>
     <t>Rodamiento FAG 6010 2RSR</t>
   </si>
   <si>
-    <t>12000046325</t>
-  </si>
-  <si>
     <t>Valvula_marip Lleb KHS h.204.33.01.036/4</t>
   </si>
   <si>
-    <t>12200055422</t>
-  </si>
-  <si>
     <t>Rodamiento_RHP 7014 CTRDULP3</t>
   </si>
   <si>
-    <t>12200067972</t>
-  </si>
-  <si>
     <t>Junta TEP VP215 01 TTAZB050E</t>
   </si>
   <si>
@@ -368,868 +224,436 @@
     <t>Simplificado</t>
   </si>
   <si>
-    <t>12000078595</t>
-  </si>
-  <si>
     <t>Guia Lleb SZI 223208</t>
   </si>
   <si>
-    <t>12200003254</t>
-  </si>
-  <si>
     <t>Rodillo Lleb KRO 8070253256</t>
   </si>
   <si>
-    <t>12000074237</t>
-  </si>
-  <si>
     <t>Vastago_embol Lleb KHS H.292.05.01.045/1</t>
   </si>
   <si>
-    <t>12000076433</t>
-  </si>
-  <si>
     <t>Actuador apv Lleb KHS 685.92.74.006/1A</t>
   </si>
   <si>
-    <t>12000086035</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 2202 E-2RS1TN9</t>
   </si>
   <si>
-    <t>12200063548</t>
-  </si>
-  <si>
     <t>Valvula_segur Comp PRK SRH1 1/2x3/4x150</t>
   </si>
   <si>
     <t>Rodamiento SKF 6215 ZZ</t>
   </si>
   <si>
-    <t>12000117212</t>
-  </si>
-  <si>
     <t>Cuchilla Empa KRO 8.950.29.338.6</t>
   </si>
   <si>
-    <t>12200037319</t>
-  </si>
-  <si>
     <t>Dedo Rechazador Insb KRO 0904461023</t>
   </si>
   <si>
-    <t>12200017538</t>
-  </si>
-  <si>
     <t>Banda modular Pale KRO 0-901-35-570-7</t>
   </si>
   <si>
-    <t>12200019790</t>
-  </si>
-  <si>
     <t>Banda Empa KRO 0-901-98-355-4</t>
   </si>
   <si>
-    <t>12000000146</t>
-  </si>
-  <si>
     <t>Rodamiento_FAG 6309 2Z L038 C3</t>
   </si>
   <si>
-    <t>12200035478</t>
-  </si>
-  <si>
     <t>Junta Llen KRO 0-902-27-033-6</t>
   </si>
   <si>
-    <t>12200017707</t>
-  </si>
-  <si>
     <t>Perno Llen KRO 0900789296</t>
   </si>
   <si>
-    <t>12000144226</t>
-  </si>
-  <si>
     <t>Valvula seg PRK SRH3 3/4x1 250psi</t>
   </si>
   <si>
-    <t>12000064428</t>
-  </si>
-  <si>
     <t>Repuesto_Lleb KHS 6859271005/4A</t>
   </si>
   <si>
-    <t>12200003849</t>
-  </si>
-  <si>
     <t>Engrasador ETIQ KRO 0.902.27.903.6</t>
   </si>
   <si>
-    <t>12000003814</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6206 2Z/C3GJN</t>
   </si>
   <si>
-    <t>12200000211</t>
-  </si>
-  <si>
     <t>Rodamiento_No- 6213-2RSR-C3</t>
   </si>
   <si>
-    <t>12101005615</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6005 2RS</t>
   </si>
   <si>
-    <t>12000130539</t>
-  </si>
-  <si>
     <t>Jgo. bandas KRO 0-901-23-676-6</t>
   </si>
   <si>
-    <t>12200016503</t>
-  </si>
-  <si>
     <t>Rodamiento SKF  6303-2RS-J-C3</t>
   </si>
   <si>
-    <t>12200222334</t>
-  </si>
-  <si>
     <t>Fuente B&amp;R 8BVP0440HW00.000-1</t>
   </si>
   <si>
-    <t>12200003253</t>
-  </si>
-  <si>
     <t>Perno Lleb KRO 8070253258</t>
   </si>
   <si>
-    <t>12200017717</t>
-  </si>
-  <si>
     <t>Engrane Caps KRO 0901395706</t>
   </si>
   <si>
-    <t>12000033810</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 6304 2RS1</t>
   </si>
   <si>
-    <t>12000016134</t>
-  </si>
-  <si>
     <t>Rodamiento FAG 6312 ZZ/C3</t>
   </si>
   <si>
-    <t>12200011653</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 6312 2RS C3</t>
   </si>
   <si>
-    <t>12000063370</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6211-2RS1/C3</t>
   </si>
   <si>
-    <t>12200020448</t>
-  </si>
-  <si>
     <t>Banda Empa KRO 0-902-22-672-4</t>
   </si>
   <si>
-    <t>12000038579</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 30211</t>
   </si>
   <si>
-    <t>12000117166</t>
-  </si>
-  <si>
     <t>Rodamiento 61844 Llen KRO 0405002301</t>
   </si>
   <si>
-    <t>12200017780</t>
-  </si>
-  <si>
     <t>Cilindro Llen KRO 0902398502</t>
   </si>
   <si>
-    <t>12200090390</t>
-  </si>
-  <si>
     <t>Banda LBP 1005SR XLA REX 8771718</t>
   </si>
   <si>
-    <t>12000012123</t>
-  </si>
-  <si>
     <t>Cadena_rc. LIB paso 80</t>
   </si>
   <si>
-    <t>12000117165</t>
-  </si>
-  <si>
     <t>Rodamiento No- 61838 Llen K</t>
   </si>
   <si>
-    <t>12000092662</t>
-  </si>
-  <si>
     <t>Rodamiento 306223 Cap ACY CUSC032062RS</t>
   </si>
   <si>
-    <t>12000056596</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 2207 E 2RS1TN9</t>
   </si>
   <si>
-    <t>12000040216</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6000 2Z C3</t>
   </si>
   <si>
-    <t>12000000152</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 6313 2Z/C3</t>
   </si>
   <si>
-    <t>12200095074</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 6212 2RSR C3</t>
   </si>
   <si>
-    <t>12200019815</t>
-  </si>
-  <si>
     <t>Grasa Llen KRO 901883799 CELERON L7005</t>
   </si>
   <si>
-    <t>12200035429</t>
-  </si>
-  <si>
     <t>Diafragma Llen KRO 0-901-68-625-5</t>
   </si>
   <si>
-    <t>12000061678</t>
-  </si>
-  <si>
     <t>Soporte_tulip Llen KHS X58811987</t>
   </si>
   <si>
-    <t>12200035428</t>
-  </si>
-  <si>
     <t>Cilindro Llen KRO 0-901-69-552-6</t>
   </si>
   <si>
-    <t>12200035451</t>
-  </si>
-  <si>
     <t>Placa Llen KRO 0-902-21-771-6</t>
   </si>
   <si>
-    <t>12000117175</t>
-  </si>
-  <si>
     <t>Reten Lleb KRO 0900376187</t>
   </si>
   <si>
-    <t>12200215396</t>
-  </si>
-  <si>
     <t>Modulo KRO 0-901-92-566-5</t>
   </si>
   <si>
-    <t>12200019688</t>
-  </si>
-  <si>
     <t>Eje Empa KRO 0-900-79-012-6</t>
   </si>
   <si>
-    <t>12200012040</t>
-  </si>
-  <si>
     <t>Abrazadera Llen KRO 0-901-76-478-4</t>
   </si>
   <si>
-    <t>12200019771</t>
-  </si>
-  <si>
     <t>Banda Empa KRO 0-902-22-672-5</t>
   </si>
   <si>
-    <t>12000090136</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 3211</t>
   </si>
   <si>
-    <t>12000033805</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6301 ZZ</t>
   </si>
   <si>
-    <t>12200012039</t>
-  </si>
-  <si>
     <t>Abrazadera Llen KRO 0-901-76-478-2</t>
   </si>
   <si>
-    <t>12200091157</t>
-  </si>
-  <si>
     <t>Pulsador Llla SZI 4270623802</t>
   </si>
   <si>
-    <t>12000120676</t>
-  </si>
-  <si>
     <t>Rodamiento_KWSE 25 HL G2B2</t>
   </si>
   <si>
-    <t>12200133295</t>
-  </si>
-  <si>
     <t>Reten Frontal Bomb KRO 0902287617</t>
   </si>
   <si>
-    <t>12000131841</t>
-  </si>
-  <si>
     <t>Cilindro  Caps KRO 0-900-71-736-6</t>
   </si>
   <si>
-    <t>12000000124</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6202 ZZ</t>
   </si>
   <si>
-    <t>12200246391</t>
-  </si>
-  <si>
     <t>Banda modular KRO 901525445</t>
   </si>
   <si>
-    <t>12000032310</t>
-  </si>
-  <si>
     <t>Clutch_Empa KIS K.9140035087</t>
   </si>
   <si>
-    <t>12200296128</t>
-  </si>
-  <si>
     <t>Kit laser SWS 90-000100</t>
   </si>
   <si>
-    <t>12200005594</t>
-  </si>
-  <si>
     <t>Cadena MOR RC-40-1</t>
   </si>
   <si>
-    <t>12000012009</t>
-  </si>
-  <si>
     <t>Cadena de rodillos REG A40/30S</t>
   </si>
   <si>
-    <t>12000010281</t>
-  </si>
-  <si>
     <t>Rodamiento_No- 6314 2RS C3</t>
   </si>
   <si>
-    <t>12000190351</t>
-  </si>
-  <si>
     <t>Reten Frontal Mez KRO 0900723272</t>
   </si>
   <si>
-    <t>12000090004</t>
-  </si>
-  <si>
     <t>Bomba_VHP VH-284UL</t>
   </si>
   <si>
-    <t>12000053031</t>
-  </si>
-  <si>
     <t>Filtro_aceite PRK 92876610BPF</t>
   </si>
   <si>
-    <t>12200020436</t>
-  </si>
-  <si>
     <t>Cadena Empa KRO 0-901-59-117-4</t>
   </si>
   <si>
-    <t>12200090387</t>
-  </si>
-  <si>
     <t>Cadena SG1505 XLG REX 8780013</t>
   </si>
   <si>
-    <t>12000076431</t>
-  </si>
-  <si>
     <t>Repuesto_valv Llen KHS 685-92-71-005/1A</t>
   </si>
   <si>
-    <t>12200020411</t>
-  </si>
-  <si>
     <t>Aceite Empa KRO 0903141308</t>
   </si>
   <si>
-    <t>12200017783</t>
-  </si>
-  <si>
     <t>Perno Llen KRO 0902437022</t>
   </si>
   <si>
-    <t>12200003775</t>
-  </si>
-  <si>
     <t>Cojinete EMPA KRO 0404003440</t>
   </si>
   <si>
-    <t>12000143133</t>
-  </si>
-  <si>
     <t>Anillo Empa KRO REF 0-901-24-724-5</t>
   </si>
   <si>
-    <t>12000092436</t>
-  </si>
-  <si>
     <t>Retén LLEN KHS 301024329700</t>
   </si>
   <si>
-    <t>12000069679</t>
-  </si>
-  <si>
     <t>Rodamiento NCE 8703 3/4</t>
   </si>
   <si>
-    <t>12200095883</t>
-  </si>
-  <si>
     <t>Valvula seg PRK SRH1 1/2X3/4X300</t>
   </si>
   <si>
-    <t>12000066488</t>
-  </si>
-  <si>
     <t>Soporte LLEB KHS 58803057SOO1</t>
   </si>
   <si>
-    <t>12200084066</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 7308 BE</t>
   </si>
   <si>
-    <t>12200090719</t>
-  </si>
-  <si>
     <t>Rodamiento Bola Caps ALC 5030550000</t>
   </si>
   <si>
     <t>CPU Lleb A-B 1769-L23E-QBFC1</t>
   </si>
   <si>
-    <t>12000117164</t>
-  </si>
-  <si>
     <t>Empaque Lleb KRO 169000001</t>
   </si>
   <si>
-    <t>12000001682</t>
-  </si>
-  <si>
     <t>Placa Lleb SZI 238409</t>
   </si>
   <si>
-    <t>12200005590</t>
-  </si>
-  <si>
     <t>Cadena_doble MOR RC-2082-1 D3</t>
   </si>
   <si>
-    <t>12000085132</t>
-  </si>
-  <si>
     <t>Junta TEP 90521-1007</t>
   </si>
   <si>
-    <t>12200134271</t>
-  </si>
-  <si>
     <t>Reductor SWS MP201019</t>
   </si>
   <si>
-    <t>12200017765</t>
-  </si>
-  <si>
     <t>Perno Llen KRO 0902216513</t>
   </si>
   <si>
-    <t>12000150664</t>
-  </si>
-  <si>
     <t>Valvula angul 1/2 PRK 013HSFANH</t>
   </si>
   <si>
-    <t>12200134269</t>
-  </si>
-  <si>
     <t>Motor SWS MP200947</t>
   </si>
   <si>
-    <t>12000036366</t>
-  </si>
-  <si>
     <t>Rodamiento 3215 c55r zkl yk</t>
   </si>
   <si>
-    <t>12000055195</t>
-  </si>
-  <si>
     <t>Guia Lleb SZI 222975</t>
   </si>
   <si>
-    <t>12000010020</t>
-  </si>
-  <si>
     <t>Rodamiento 6314 ZZ SKF</t>
   </si>
   <si>
-    <t>12200055879</t>
-  </si>
-  <si>
     <t>Unidad SWS EP1-222</t>
   </si>
   <si>
-    <t>12200044502</t>
-  </si>
-  <si>
     <t>Tubo Pale KRO 0-902-16-798-6</t>
   </si>
   <si>
-    <t>12200067842</t>
-  </si>
-  <si>
     <t>Sello mecánico 28R EPDM TEP 90522-3595</t>
   </si>
   <si>
-    <t>12200063744</t>
-  </si>
-  <si>
     <t>Rodamiento Caps KRO 0903321678</t>
   </si>
   <si>
-    <t>12200017519</t>
-  </si>
-  <si>
     <t>Cable Pale KRO 0-901-89-704-0</t>
   </si>
   <si>
-    <t>12200067892</t>
-  </si>
-  <si>
     <t>Rodamiento angular TEP 90520-7005</t>
   </si>
   <si>
-    <t>12200067847</t>
-  </si>
-  <si>
     <t>Anillo O 202.2x5.34 TEP 90521 0953</t>
   </si>
   <si>
-    <t>12200091155</t>
-  </si>
-  <si>
     <t>Guia  Llla SZI 04269092702</t>
   </si>
   <si>
-    <t>12200048748</t>
-  </si>
-  <si>
     <t>Rodamiento FAG 6026</t>
   </si>
   <si>
-    <t>12200151767</t>
-  </si>
-  <si>
     <t>Cabezal d/cierre Caps KRO 0-901-65-320-0</t>
   </si>
   <si>
-    <t>12200043376</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6212 2Z JC3</t>
   </si>
   <si>
-    <t>12000033074</t>
-  </si>
-  <si>
     <t>Rodamiento RHP SS6009 ZZ ai</t>
   </si>
   <si>
-    <t>12000083164</t>
-  </si>
-  <si>
     <t>Cambio divisores ALV 9231098</t>
   </si>
   <si>
-    <t>12000039430</t>
-  </si>
-  <si>
     <t>Sello mecanico TEP 90521-0947</t>
   </si>
   <si>
-    <t>12200013385</t>
-  </si>
-  <si>
     <t>Boton emergen preb KRO 0.901.47.439.2</t>
   </si>
   <si>
-    <t>12000074502</t>
-  </si>
-  <si>
     <t>Cadena de acero 5/16 pulida FRR.</t>
   </si>
   <si>
-    <t>12200032260</t>
-  </si>
-  <si>
     <t>Rodamiento_No- 6317 2RS1/C3</t>
   </si>
   <si>
-    <t>12200029859</t>
-  </si>
-  <si>
     <t>Convert. frecu. Pale KRO 0-901-37-385-5</t>
   </si>
   <si>
-    <t>12200134266</t>
-  </si>
-  <si>
     <t>Motor SWS MP200946</t>
   </si>
   <si>
-    <t>12000016464</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6212 2RS1</t>
   </si>
   <si>
-    <t>12000132638</t>
-  </si>
-  <si>
     <t>Anillo O Llen KRO 8-351-75-0752</t>
   </si>
   <si>
-    <t>12200013602</t>
-  </si>
-  <si>
     <t>Tanque/Varilla Caps KRO 1351800950</t>
   </si>
   <si>
-    <t>12000034803</t>
-  </si>
-  <si>
     <t>Cadena milimetrica iso 08b-1</t>
   </si>
   <si>
-    <t>12200190530</t>
-  </si>
-  <si>
     <t>ControlLogix 5570 A-B 1756-L73</t>
   </si>
   <si>
-    <t>12200197507</t>
-  </si>
-  <si>
     <t>Motor 266/460V Empa KHS 725007576</t>
   </si>
   <si>
-    <t>12200000210</t>
-  </si>
-  <si>
     <t>Rodamiento_SKF 6216-2RS1-C3-NR</t>
   </si>
   <si>
-    <t>12200190534</t>
-  </si>
-  <si>
     <t>Pinza Izquierda KRO 9109533478</t>
   </si>
   <si>
-    <t>12200269432</t>
-  </si>
-  <si>
     <t>Cilindro hidrau PRK 2.50H2HHNAT1S39AC40</t>
   </si>
   <si>
-    <t>12200011143</t>
-  </si>
-  <si>
     <t>Rodamiento TIM JLM714149</t>
   </si>
   <si>
-    <t>12200190535</t>
-  </si>
-  <si>
     <t>Pinza Derecha KRO 9109533480</t>
   </si>
   <si>
-    <t>12000173362</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 3310 A-2Z</t>
   </si>
   <si>
-    <t>12200012044</t>
-  </si>
-  <si>
     <t>Convertidor frec Llen KRO 0-901-88-963-3</t>
   </si>
   <si>
-    <t>12200247229</t>
-  </si>
-  <si>
     <t>Vástago de guía KRO 0-902-66-179-2</t>
   </si>
   <si>
-    <t>12200247230</t>
-  </si>
-  <si>
     <t>Vástago de guía KRO 0-902-66-176-4</t>
   </si>
   <si>
-    <t>12000033814</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 6313-2Z</t>
   </si>
   <si>
-    <t>12000003492</t>
-  </si>
-  <si>
     <t>Cadena LIB RC80C/A K1</t>
   </si>
   <si>
-    <t>12200017786</t>
-  </si>
-  <si>
     <t>Anillo O Caps KRO 1351780580</t>
   </si>
   <si>
-    <t>12200264778</t>
-  </si>
-  <si>
     <t>Kit SMI MT500052</t>
   </si>
   <si>
-    <t>12200017778</t>
-  </si>
-  <si>
     <t>Camara Insn KRO  0902386306</t>
   </si>
   <si>
-    <t>12200062105</t>
-  </si>
-  <si>
     <t>Cuña polea Enga ANG 50S844</t>
   </si>
   <si>
-    <t>12200267277</t>
-  </si>
-  <si>
     <t>Rodamiento FAG 3217</t>
   </si>
   <si>
-    <t>12000044061</t>
-  </si>
-  <si>
     <t>Rodamiento SKF 61824</t>
   </si>
   <si>
-    <t>12200189551</t>
-  </si>
-  <si>
     <t>Rodamiento rueda MYC CS03800-160SKFV</t>
   </si>
   <si>
-    <t>12200294325</t>
-  </si>
-  <si>
     <t>Riel de deslizamiento KRO 903517742</t>
   </si>
   <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>12200131371</t>
-  </si>
-  <si>
     <t>Cadena Empa SMI MG030169</t>
   </si>
   <si>
-    <t>12200290750</t>
-  </si>
-  <si>
     <t>Banda XLA 1005 XLBP MCC 877.17.16</t>
   </si>
   <si>
-    <t>12200274302</t>
-  </si>
-  <si>
     <t>Variador FC302 18.5kw IPA C800DDNNN0200</t>
   </si>
   <si>
-    <t>12200095611</t>
-  </si>
-  <si>
     <t>KIT GALVOS CODI FIL 42456-2</t>
   </si>
   <si>
-    <t>12200274809</t>
-  </si>
-  <si>
     <t>Terminal ind570 M-T T57000H100000E00A0</t>
   </si>
   <si>
-    <t>12200300536</t>
-  </si>
-  <si>
     <t>Caudalimetro elec H300 E+H 5H3B80-PQA4/0</t>
   </si>
   <si>
-    <t>12200137767</t>
-  </si>
-  <si>
     <t>Rodillo Envo TOS 088820000072</t>
-  </si>
-  <si>
-    <t>12200099915</t>
   </si>
   <si>
     <t>GENERADOR OZONO OZP M00788</t>
@@ -1297,15 +721,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1642,4542 +1067,4547 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994CF81A-649C-AE4E-A9F0-14F377A88166}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>400</v>
+      <c r="F1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="4">
+        <v>12200170746</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>12000079084</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1.2052980132450331</v>
       </c>
       <c r="E3">
         <v>0.9643809941926107</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" s="4">
+        <v>12200000488</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
         <v>1.5</v>
       </c>
       <c r="E4">
         <v>0.86602540378443882</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>12000000240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2.0516252390057361</v>
       </c>
       <c r="E5">
         <v>1.526995360456348</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" s="4">
+        <v>12200063566</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
         <v>2.5</v>
       </c>
       <c r="E6">
         <v>1.3693063937629151</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
+      <c r="A7" s="4">
+        <v>12000061680</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
         <v>3.333333333333333</v>
       </c>
       <c r="E7">
         <v>1.7480147469502529</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
+      <c r="A8" s="4">
+        <v>12200067646</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
         <v>3.5</v>
       </c>
       <c r="E8">
         <v>1.707825127659933</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
+      <c r="A9" s="4">
+        <v>12200159753</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
         <v>4</v>
       </c>
       <c r="E9">
         <v>1.8516401995451031</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
+      <c r="A10" s="4">
+        <v>12000120609</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
         <v>4.0909090909090908</v>
       </c>
       <c r="E10">
         <v>2.690839264285013</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
+      <c r="A11" s="4">
+        <v>12200005596</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
         <v>4.5</v>
       </c>
       <c r="E11">
         <v>1.984313483298443</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
+      <c r="A12" s="4">
+        <v>12000081823</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
         <v>4.5827814569536427</v>
       </c>
       <c r="E12">
         <v>2.5742390640670698</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
+      <c r="A13" s="4">
+        <v>12000036924</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
         <v>5.3482587064676617</v>
       </c>
       <c r="E13">
         <v>3.1072729772098899</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
+      <c r="A14" s="4">
+        <v>12000079080</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
       <c r="E14">
         <v>2.3354968324845689</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
+      <c r="A15" s="4">
+        <v>12000080639</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
         <v>6.477064220183486</v>
       </c>
       <c r="E15">
         <v>4.0454201440798156</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
+      <c r="A16" s="4">
+        <v>12200159755</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
         <v>7.5</v>
       </c>
       <c r="E16">
         <v>2.6389933145587379</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
+      <c r="A17" s="4">
+        <v>12000117831</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
         <v>7.8351648351648349</v>
       </c>
       <c r="E17">
         <v>4.0226122341731809</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>42</v>
+      <c r="A18" s="4">
+        <v>12000075238</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
         <v>8.1203007518797001</v>
       </c>
       <c r="E18">
         <v>3.8522821662845979</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="A19" s="4">
+        <v>12000000142</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="3">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
         <v>8.6479999999999997</v>
       </c>
       <c r="E19">
         <v>3.7179926556886729</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>12000045351</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2">
         <v>8.7222222222222214</v>
       </c>
       <c r="E20">
         <v>5.1406793879756556</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>47</v>
+      <c r="A21" s="4">
+        <v>12000071659</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
         <v>9</v>
       </c>
       <c r="E21">
         <v>2.910427500435997</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>12200239305</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2">
         <v>10</v>
       </c>
       <c r="E22">
         <v>3.0779350562554622</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>50</v>
+      <c r="A23" s="4">
+        <v>12000033050</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2">
         <v>10.53465346534654</v>
       </c>
       <c r="E23">
         <v>4.4251806415274979</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>52</v>
+      <c r="A24" s="4">
+        <v>12000000239</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="3">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
         <v>11.16494845360825</v>
       </c>
       <c r="E24">
         <v>4.5501048658139016</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>54</v>
+      <c r="A25" s="4">
+        <v>12000040319</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="3">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
         <v>11.294736842105261</v>
       </c>
       <c r="E25">
         <v>4.3293438305997478</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>56</v>
+      <c r="A26" s="4">
+        <v>12200158874</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2">
         <v>11.33333333333333</v>
       </c>
       <c r="E26">
         <v>3.479376467998343</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>58</v>
+      <c r="A27" s="4">
+        <v>12000187742</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="3">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2">
         <v>11.5</v>
       </c>
       <c r="E27">
         <v>3.3131967534803488</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>60</v>
+      <c r="A28" s="4">
+        <v>12000046146</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="3">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2">
         <v>11.767857142857141</v>
       </c>
       <c r="E28">
         <v>6.3149309393547481</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>62</v>
+      <c r="A29" s="4">
+        <v>12200044764</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2">
         <v>12</v>
       </c>
       <c r="E29">
         <v>3.5856858280031809</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>64</v>
+      <c r="A30" s="4">
+        <v>12000040353</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2">
         <v>13.457627118644069</v>
       </c>
       <c r="E30">
         <v>4.8150461015012356</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>66</v>
+      <c r="A31" s="4">
+        <v>12000069958</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="3">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2">
         <v>13.5</v>
       </c>
       <c r="E31">
         <v>3.6028834606144602</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>68</v>
+      <c r="A32" s="4">
+        <v>12000010228</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2">
         <v>13.56862745098039</v>
       </c>
       <c r="E32">
         <v>5.8379577837959857</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>70</v>
+      <c r="A33" s="4">
+        <v>12000040002</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="3">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2">
         <v>14.08</v>
       </c>
       <c r="E33">
         <v>4.3746526012694629</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>72</v>
+      <c r="A34" s="4">
+        <v>12200016864</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="3">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2">
         <v>14.28333333333333</v>
       </c>
       <c r="E34">
         <v>4.2985654822016279</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>74</v>
+      <c r="A35" s="4">
+        <v>12200294567</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="3">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2">
         <v>14.5</v>
       </c>
       <c r="E35">
         <v>4.2114851469353596</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>76</v>
+      <c r="A36" s="4">
+        <v>12200291899</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="3">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2">
         <v>14.5</v>
       </c>
       <c r="E36">
         <v>3.7392703642746761</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>78</v>
+      <c r="A37" s="4">
+        <v>12000051384</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="3">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2">
         <v>14.819444444444439</v>
       </c>
       <c r="E37">
         <v>4.2997301087994018</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>80</v>
+      <c r="A38" s="4">
+        <v>12000093137</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="3">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2">
         <v>15</v>
       </c>
       <c r="E38">
         <v>3.8056219755369369</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>82</v>
+      <c r="A39" s="4">
+        <v>12000117186</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="3">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2">
         <v>15.232558139534881</v>
       </c>
       <c r="E39">
         <v>4.9297002506417726</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>84</v>
+      <c r="A40" s="4">
+        <v>12000010219</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="3">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2">
         <v>15.63636363636364</v>
       </c>
       <c r="E40">
         <v>4.3694259516159679</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>86</v>
+      <c r="A41" s="4">
+        <v>12200002002</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="3">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2">
         <v>16</v>
       </c>
       <c r="E41">
         <v>3.9349550147037178</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>88</v>
+      <c r="A42" s="4">
+        <v>12200000350</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="3">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2">
         <v>16</v>
       </c>
       <c r="E42">
         <v>3.9349550147037178</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>90</v>
+      <c r="A43" s="4">
+        <v>12000012083</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="3">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2">
         <v>16.215384615384611</v>
       </c>
       <c r="E43">
         <v>4.625210192370683</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>92</v>
+      <c r="A44" s="4">
+        <v>12000075287</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="3">
+        <v>52</v>
+      </c>
+      <c r="D44" s="2">
         <v>16.79032258064516</v>
       </c>
       <c r="E44">
         <v>4.1430142012203923</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>94</v>
+      <c r="A45" s="4">
+        <v>12000058723</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="3">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2">
         <v>17.5</v>
       </c>
       <c r="E45">
         <v>4.12132188959405</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>96</v>
+      <c r="A46" s="4">
+        <v>12200159754</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="3">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2">
         <v>18</v>
       </c>
       <c r="E46">
         <v>4.1815923146230194</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>98</v>
+      <c r="A47" s="4">
+        <v>12200016865</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="3">
+        <v>55</v>
+      </c>
+      <c r="D47" s="2">
         <v>19.783783783783779</v>
       </c>
       <c r="E47">
         <v>5.1150268856465706</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>100</v>
+      <c r="A48" s="4">
+        <v>12000054987</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="3">
+        <v>56</v>
+      </c>
+      <c r="D48" s="2">
         <v>19.955555555555559</v>
       </c>
       <c r="E48">
         <v>5.4798065071431292</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>102</v>
+      <c r="A49" s="4">
+        <v>12000046325</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="3">
+        <v>57</v>
+      </c>
+      <c r="D49" s="2">
         <v>21</v>
       </c>
       <c r="E49">
         <v>6.0234627406588626</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>104</v>
+      <c r="A50" s="4">
+        <v>12200055422</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="3">
+        <v>58</v>
+      </c>
+      <c r="D50" s="2">
         <v>21.5</v>
       </c>
       <c r="E50">
         <v>4.5812765948035956</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>106</v>
+      <c r="A51" s="4">
+        <v>12200067972</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="3">
+        <v>59</v>
+      </c>
+      <c r="D51" s="2">
         <v>22</v>
       </c>
       <c r="E51">
         <v>4.910741758164912</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>12000040352</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="3">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2">
         <v>22.243902439024389</v>
       </c>
       <c r="E52">
         <v>6.3454557323003931</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>110</v>
+      <c r="A53" s="4">
+        <v>12000078595</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="3">
+        <v>62</v>
+      </c>
+      <c r="D53" s="2">
         <v>22.8</v>
       </c>
       <c r="E53">
         <v>8.6877545222603505</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>112</v>
+      <c r="A54" s="4">
+        <v>12200003254</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="3">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2">
         <v>22.833333333333329</v>
       </c>
       <c r="E54">
         <v>5.4289117794890318</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>114</v>
+      <c r="A55" s="4">
+        <v>12000074237</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="3">
+        <v>64</v>
+      </c>
+      <c r="D55" s="2">
         <v>23</v>
       </c>
       <c r="E55">
         <v>5.6765324571163109</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>116</v>
+      <c r="A56" s="4">
+        <v>12000076433</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="3">
+        <v>65</v>
+      </c>
+      <c r="D56" s="2">
         <v>24.581395348837209</v>
       </c>
       <c r="E56">
         <v>7.2951081344694639</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>118</v>
+      <c r="A57" s="4">
+        <v>12000086035</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="3">
+        <v>66</v>
+      </c>
+      <c r="D57" s="2">
         <v>24.592592592592592</v>
       </c>
       <c r="E57">
         <v>5.5095269115033831</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>120</v>
+      <c r="A58" s="4">
+        <v>12200063548</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="3">
+        <v>67</v>
+      </c>
+      <c r="D58" s="2">
         <v>25.166666666666671</v>
       </c>
       <c r="E58">
         <v>5.1336666558448547</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>12000010210</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="3">
+        <v>68</v>
+      </c>
+      <c r="D59" s="2">
         <v>25.4</v>
       </c>
       <c r="E59">
         <v>5.4457638339610446</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>123</v>
+      <c r="A60" s="4">
+        <v>12000117212</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="3">
+        <v>69</v>
+      </c>
+      <c r="D60" s="2">
         <v>25.61538461538462</v>
       </c>
       <c r="E60">
         <v>4.9651183501853762</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>125</v>
+      <c r="A61" s="4">
+        <v>12200037319</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="3">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2">
         <v>25.76</v>
       </c>
       <c r="E61">
         <v>6.3341597495795208</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>127</v>
+      <c r="A62" s="4">
+        <v>12200017538</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="3">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2">
         <v>26.521739130434781</v>
       </c>
       <c r="E62">
         <v>7.7752677427585937</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>129</v>
+      <c r="A63" s="4">
+        <v>12200019790</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="3">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2">
         <v>27.666666666666671</v>
       </c>
       <c r="E63">
         <v>5.3497018060430266</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>131</v>
+      <c r="A64" s="4">
+        <v>12000000146</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="3">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2">
         <v>28.304347826086961</v>
       </c>
       <c r="E64">
         <v>6.2934532571068198</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>133</v>
+      <c r="A65" s="4">
+        <v>12200035478</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="3">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2">
         <v>29.65217391304348</v>
       </c>
       <c r="E65">
         <v>7.7852511070113692</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>135</v>
+      <c r="A66" s="4">
+        <v>12200017707</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="3">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2">
         <v>29.68181818181818</v>
       </c>
       <c r="E66">
         <v>5.8297686601369803</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>137</v>
+      <c r="A67" s="4">
+        <v>12000144226</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="3">
+        <v>76</v>
+      </c>
+      <c r="D67" s="2">
         <v>30</v>
       </c>
       <c r="E67">
         <v>7.3979192747198894</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>139</v>
+      <c r="A68" s="4">
+        <v>12000064428</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="3">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2">
         <v>30.208333333333329</v>
       </c>
       <c r="E68">
         <v>6.0098905589359788</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>141</v>
+      <c r="A69" s="4">
+        <v>12200003849</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" s="3">
+        <v>78</v>
+      </c>
+      <c r="D69" s="2">
         <v>30.25</v>
       </c>
       <c r="E69">
         <v>6.6812209968480314</v>
       </c>
       <c r="F69" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>143</v>
+      <c r="A70" s="4">
+        <v>12000003814</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70" s="3">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2">
         <v>30.826086956521738</v>
       </c>
       <c r="E70">
         <v>6.0891910873974551</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>145</v>
+      <c r="A71" s="4">
+        <v>12200000211</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="3">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2">
         <v>30.952380952380949</v>
       </c>
       <c r="E71">
         <v>5.8023426542518006</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>147</v>
+      <c r="A72" s="4">
+        <v>12101005615</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" s="3">
+        <v>81</v>
+      </c>
+      <c r="D72" s="2">
         <v>31.35</v>
       </c>
       <c r="E72">
         <v>6.2427821795627114</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>149</v>
+      <c r="A73" s="4">
+        <v>12000130539</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="3">
+        <v>82</v>
+      </c>
+      <c r="D73" s="2">
         <v>31.72727272727273</v>
       </c>
       <c r="E73">
         <v>5.6597402368140806</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>151</v>
+      <c r="A74" s="4">
+        <v>12200016503</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" s="3">
+        <v>83</v>
+      </c>
+      <c r="D74" s="2">
         <v>32.178571428571431</v>
       </c>
       <c r="E74">
         <v>9.973838984348296</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>153</v>
+      <c r="A75" s="4">
+        <v>12200222334</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="3">
+        <v>84</v>
+      </c>
+      <c r="D75" s="2">
         <v>32.333333333333343</v>
       </c>
       <c r="E75">
         <v>5.6266972747982598</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>155</v>
+      <c r="A76" s="4">
+        <v>12200003253</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="3">
+        <v>85</v>
+      </c>
+      <c r="D76" s="2">
         <v>32.61904761904762</v>
       </c>
       <c r="E76">
         <v>5.8319675192266187</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>157</v>
+      <c r="A77" s="4">
+        <v>12200017717</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77" s="3">
+        <v>86</v>
+      </c>
+      <c r="D77" s="2">
         <v>32.85</v>
       </c>
       <c r="E77">
         <v>7.1675995614938017</v>
       </c>
       <c r="F77" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>159</v>
+      <c r="A78" s="4">
+        <v>12000033810</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="3">
+        <v>87</v>
+      </c>
+      <c r="D78" s="2">
         <v>32.96</v>
       </c>
       <c r="E78">
         <v>6.1144579950324323</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>161</v>
+      <c r="A79" s="4">
+        <v>12000016134</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="3">
+        <v>88</v>
+      </c>
+      <c r="D79" s="2">
         <v>33.115384615384613</v>
       </c>
       <c r="E79">
         <v>6.4100497452196672</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>163</v>
+      <c r="A80" s="4">
+        <v>12200011653</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80" s="3">
+        <v>89</v>
+      </c>
+      <c r="D80" s="2">
         <v>34.157894736842103</v>
       </c>
       <c r="E80">
         <v>6.5614981652788256</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>165</v>
+      <c r="A81" s="4">
+        <v>12000063370</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D81" s="3">
+        <v>90</v>
+      </c>
+      <c r="D81" s="2">
         <v>34.210526315789473</v>
       </c>
       <c r="E81">
         <v>6.1176493404881773</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>167</v>
+      <c r="A82" s="4">
+        <v>12200020448</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="3">
+        <v>91</v>
+      </c>
+      <c r="D82" s="2">
         <v>35</v>
       </c>
       <c r="E82">
         <v>6.033010353906934</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>169</v>
+      <c r="A83" s="4">
+        <v>12000038579</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="3">
+        <v>92</v>
+      </c>
+      <c r="D83" s="2">
         <v>35.037037037037038</v>
       </c>
       <c r="E83">
         <v>6.3143035371542426</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>171</v>
+      <c r="A84" s="4">
+        <v>12000117166</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84" s="3">
+        <v>93</v>
+      </c>
+      <c r="D84" s="2">
         <v>35.299999999999997</v>
       </c>
       <c r="E84">
         <v>6.0809535930175631</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>173</v>
+      <c r="A85" s="4">
+        <v>12200017780</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" s="3">
+        <v>94</v>
+      </c>
+      <c r="D85" s="2">
         <v>35.96551724137931</v>
       </c>
       <c r="E85">
         <v>10.156112552068601</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>175</v>
+      <c r="A86" s="4">
+        <v>12200090390</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86" s="3">
+        <v>95</v>
+      </c>
+      <c r="D86" s="2">
         <v>36.333333333333343</v>
       </c>
       <c r="E86">
         <v>6.3438326714189763</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>177</v>
+      <c r="A87" s="4">
+        <v>12000012123</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="3">
+        <v>96</v>
+      </c>
+      <c r="D87" s="2">
         <v>37.36</v>
       </c>
       <c r="E87">
         <v>7.2950656926774782</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>179</v>
+      <c r="A88" s="4">
+        <v>12000117165</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="3">
+        <v>97</v>
+      </c>
+      <c r="D88" s="2">
         <v>37.368421052631582</v>
       </c>
       <c r="E88">
         <v>6.1728167911264249</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>181</v>
+      <c r="A89" s="4">
+        <v>12000092662</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" s="3">
+        <v>98</v>
+      </c>
+      <c r="D89" s="2">
         <v>38</v>
       </c>
       <c r="E89">
         <v>6.1231800017093594</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>183</v>
+      <c r="A90" s="4">
+        <v>12000056596</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="3">
+        <v>99</v>
+      </c>
+      <c r="D90" s="2">
         <v>38.294117647058833</v>
       </c>
       <c r="E90">
         <v>6.4817013139358064</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>185</v>
+      <c r="A91" s="4">
+        <v>12000040216</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
-      </c>
-      <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="D91" s="2">
         <v>39.769230769230766</v>
       </c>
       <c r="E91">
         <v>6.8177657323314618</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>187</v>
+      <c r="A92" s="4">
+        <v>12000000152</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92" s="3">
+        <v>101</v>
+      </c>
+      <c r="D92" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="E92">
         <v>7.5144704920424754</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>189</v>
+      <c r="A93" s="4">
+        <v>12200095074</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D93" s="3">
+        <v>102</v>
+      </c>
+      <c r="D93" s="2">
         <v>40.880000000000003</v>
       </c>
       <c r="E93">
         <v>6.6337167577662486</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>191</v>
+      <c r="A94" s="4">
+        <v>12200019815</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" s="3">
+        <v>103</v>
+      </c>
+      <c r="D94" s="2">
         <v>41.285714285714278</v>
       </c>
       <c r="E94">
         <v>7.0152539584439042</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>193</v>
+      <c r="A95" s="4">
+        <v>12200035429</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
-      </c>
-      <c r="D95" s="3">
+        <v>104</v>
+      </c>
+      <c r="D95" s="2">
         <v>41.294117647058833</v>
       </c>
       <c r="E95">
         <v>10.86673678443103</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>195</v>
+      <c r="A96" s="4">
+        <v>12000061678</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
-      </c>
-      <c r="D96" s="3">
+        <v>105</v>
+      </c>
+      <c r="D96" s="2">
         <v>42.333333333333343</v>
       </c>
       <c r="E96">
         <v>9.150151716478101</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>197</v>
+      <c r="A97" s="4">
+        <v>12200035428</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
-      </c>
-      <c r="D97" s="3">
+        <v>106</v>
+      </c>
+      <c r="D97" s="2">
         <v>42.388888888888893</v>
       </c>
       <c r="E97">
         <v>6.696175505779439</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>199</v>
+      <c r="A98" s="4">
+        <v>12200035451</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
-      </c>
-      <c r="D98" s="3">
+        <v>107</v>
+      </c>
+      <c r="D98" s="2">
         <v>43.647058823529413</v>
       </c>
       <c r="E98">
         <v>7.5395474864619318</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>201</v>
+      <c r="A99" s="4">
+        <v>12000117175</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
-      </c>
-      <c r="D99" s="3">
+        <v>108</v>
+      </c>
+      <c r="D99" s="2">
         <v>44.125</v>
       </c>
       <c r="E99">
         <v>6.9633814236377773</v>
       </c>
       <c r="F99" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>12200215396</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
         <v>109</v>
       </c>
-      <c r="G99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>44.2</v>
       </c>
       <c r="E100">
         <v>6.9519636060467151</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>205</v>
+      <c r="A101" s="4">
+        <v>12200019688</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" s="3">
+        <v>110</v>
+      </c>
+      <c r="D101" s="2">
         <v>44.333333333333343</v>
       </c>
       <c r="E101">
         <v>6.8949726178885857</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>207</v>
+      <c r="A102" s="4">
+        <v>12200012040</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="3">
+        <v>111</v>
+      </c>
+      <c r="D102" s="2">
         <v>45.363636363636367</v>
       </c>
       <c r="E102">
         <v>8.3988232084619963</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>209</v>
+      <c r="A103" s="4">
+        <v>12200019771</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="3">
+        <v>112</v>
+      </c>
+      <c r="D103" s="2">
         <v>45.6</v>
       </c>
       <c r="E103">
         <v>6.8275720135273934</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>211</v>
+      <c r="A104" s="4">
+        <v>12000090136</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" s="3">
+        <v>113</v>
+      </c>
+      <c r="D104" s="2">
         <v>46.333333333333343</v>
       </c>
       <c r="E104">
         <v>7.1587636247200841</v>
       </c>
       <c r="F104" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>213</v>
+      <c r="A105" s="4">
+        <v>12000033805</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="3">
+        <v>114</v>
+      </c>
+      <c r="D105" s="2">
         <v>46.35</v>
       </c>
       <c r="E105">
         <v>10.46147720924573</v>
       </c>
       <c r="F105" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>215</v>
+      <c r="A106" s="4">
+        <v>12200012039</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
-      </c>
-      <c r="D106" s="3">
+        <v>115</v>
+      </c>
+      <c r="D106" s="2">
         <v>47.590909090909093</v>
       </c>
       <c r="E106">
         <v>7.7611717047025053</v>
       </c>
       <c r="F106" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>217</v>
+      <c r="A107" s="4">
+        <v>12200091157</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107" s="3">
+        <v>116</v>
+      </c>
+      <c r="D107" s="2">
         <v>48</v>
       </c>
       <c r="E107">
         <v>7.3055204722613274</v>
       </c>
       <c r="F107" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>219</v>
+      <c r="A108" s="4">
+        <v>12000120676</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" s="3">
+        <v>117</v>
+      </c>
+      <c r="D108" s="2">
         <v>48.642857142857153</v>
       </c>
       <c r="E108">
         <v>7.7103554932015781</v>
       </c>
       <c r="F108" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>221</v>
+      <c r="A109" s="4">
+        <v>12200133295</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="3">
+        <v>118</v>
+      </c>
+      <c r="D109" s="2">
         <v>48.842105263157897</v>
       </c>
       <c r="E109">
         <v>7.96949716439737</v>
       </c>
       <c r="F109" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>223</v>
+      <c r="A110" s="4">
+        <v>12000131841</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" s="3">
+        <v>119</v>
+      </c>
+      <c r="D110" s="2">
         <v>49.46153846153846</v>
       </c>
       <c r="E110">
         <v>6.9668517799605061</v>
       </c>
       <c r="F110" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>225</v>
+      <c r="A111" s="4">
+        <v>12000000124</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
-      </c>
-      <c r="D111" s="3">
+        <v>120</v>
+      </c>
+      <c r="D111" s="2">
         <v>50.38095238095238</v>
       </c>
       <c r="E111">
         <v>9.6785194376622972</v>
       </c>
       <c r="F111" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>227</v>
+      <c r="A112" s="4">
+        <v>12200246391</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
-      </c>
-      <c r="D112" s="3">
+        <v>121</v>
+      </c>
+      <c r="D112" s="2">
         <v>52.5</v>
       </c>
       <c r="E112">
         <v>8.3945508707283967</v>
       </c>
       <c r="F112" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>229</v>
+      <c r="A113" s="4">
+        <v>12000032310</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
-      </c>
-      <c r="D113" s="3">
+        <v>122</v>
+      </c>
+      <c r="D113" s="2">
         <v>52.89473684210526</v>
       </c>
       <c r="E113">
         <v>7.5628968465964777</v>
       </c>
       <c r="F113" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>231</v>
+      <c r="A114" s="4">
+        <v>12200296128</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>232</v>
-      </c>
-      <c r="D114" s="3">
+        <v>123</v>
+      </c>
+      <c r="D114" s="2">
         <v>53</v>
       </c>
       <c r="E114">
         <v>7.2453597629957596</v>
       </c>
       <c r="F114" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>233</v>
+      <c r="A115" s="4">
+        <v>12200005594</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>234</v>
-      </c>
-      <c r="D115" s="3">
+        <v>124</v>
+      </c>
+      <c r="D115" s="2">
         <v>53.666666666666657</v>
       </c>
       <c r="E115">
         <v>7.262821379524298</v>
       </c>
       <c r="F115" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>235</v>
+      <c r="A116" s="4">
+        <v>12000012009</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
-      </c>
-      <c r="D116" s="3">
+        <v>125</v>
+      </c>
+      <c r="D116" s="2">
         <v>53.875</v>
       </c>
       <c r="E116">
         <v>9.7629439320657383</v>
       </c>
       <c r="F116" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>237</v>
+      <c r="A117" s="4">
+        <v>12000010281</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
-      </c>
-      <c r="D117" s="3">
+        <v>126</v>
+      </c>
+      <c r="D117" s="2">
         <v>54.25</v>
       </c>
       <c r="E117">
         <v>8.1927905581450116</v>
       </c>
       <c r="F117" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>239</v>
+      <c r="A118" s="4">
+        <v>12000190351</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
-      </c>
-      <c r="D118" s="3">
+        <v>127</v>
+      </c>
+      <c r="D118" s="2">
         <v>56.4</v>
       </c>
       <c r="E118">
         <v>7.4563498459307072</v>
       </c>
       <c r="F118" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>241</v>
+      <c r="A119" s="4">
+        <v>12000090004</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
-      </c>
-      <c r="D119" s="3">
+        <v>128</v>
+      </c>
+      <c r="D119" s="2">
         <v>58.25</v>
       </c>
       <c r="E119">
         <v>7.5826622792643823</v>
       </c>
       <c r="F119" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>243</v>
+      <c r="A120" s="4">
+        <v>12000053031</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
-      </c>
-      <c r="D120" s="3">
+        <v>129</v>
+      </c>
+      <c r="D120" s="2">
         <v>58.388888888888893</v>
       </c>
       <c r="E120">
         <v>9.9143863087683393</v>
       </c>
       <c r="F120" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>245</v>
+      <c r="A121" s="4">
+        <v>12200020436</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
-      </c>
-      <c r="D121" s="3">
+        <v>130</v>
+      </c>
+      <c r="D121" s="2">
         <v>58.5</v>
       </c>
       <c r="E121">
         <v>7.8155686043075674</v>
       </c>
       <c r="F121" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>247</v>
+      <c r="A122" s="4">
+        <v>12200090387</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D122" s="3">
+        <v>131</v>
+      </c>
+      <c r="D122" s="2">
         <v>58.666666666666657</v>
       </c>
       <c r="E122">
         <v>8.0852599569481161</v>
       </c>
       <c r="F122" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>249</v>
+      <c r="A123" s="4">
+        <v>12000076431</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
-      </c>
-      <c r="D123" s="3">
+        <v>132</v>
+      </c>
+      <c r="D123" s="2">
         <v>58.888888888888893</v>
       </c>
       <c r="E123">
         <v>7.9194909232811037</v>
       </c>
       <c r="F123" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>251</v>
+      <c r="A124" s="4">
+        <v>12200020411</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
-      </c>
-      <c r="D124" s="3">
+        <v>133</v>
+      </c>
+      <c r="D124" s="2">
         <v>60.07692307692308</v>
       </c>
       <c r="E124">
         <v>7.6910768245997021</v>
       </c>
       <c r="F124" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>253</v>
+      <c r="A125" s="4">
+        <v>12200017783</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>254</v>
-      </c>
-      <c r="D125" s="3">
+        <v>134</v>
+      </c>
+      <c r="D125" s="2">
         <v>60.75</v>
       </c>
       <c r="E125">
         <v>8.2764149059692702</v>
       </c>
       <c r="F125" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>255</v>
+      <c r="A126" s="4">
+        <v>12200003775</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
-      </c>
-      <c r="D126" s="3">
+        <v>135</v>
+      </c>
+      <c r="D126" s="2">
         <v>63</v>
       </c>
       <c r="E126">
         <v>8.3132242802193108</v>
       </c>
       <c r="F126" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>257</v>
+      <c r="A127" s="4">
+        <v>12000143133</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>258</v>
-      </c>
-      <c r="D127" s="3">
+        <v>136</v>
+      </c>
+      <c r="D127" s="2">
         <v>63.636363636363633</v>
       </c>
       <c r="E127">
         <v>8.1946010427720299</v>
       </c>
       <c r="F127" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>259</v>
+      <c r="A128" s="4">
+        <v>12000092436</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>260</v>
-      </c>
-      <c r="D128" s="3">
+        <v>137</v>
+      </c>
+      <c r="D128" s="2">
         <v>64.285714285714292</v>
       </c>
       <c r="E128">
         <v>7.9640857871091999</v>
       </c>
       <c r="F128" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>261</v>
+      <c r="A129" s="4">
+        <v>12000069679</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>262</v>
-      </c>
-      <c r="D129" s="3">
+        <v>138</v>
+      </c>
+      <c r="D129" s="2">
         <v>66.230769230769226</v>
       </c>
       <c r="E129">
         <v>8.0812510765619194</v>
       </c>
       <c r="F129" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>263</v>
+      <c r="A130" s="4">
+        <v>12200095883</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>264</v>
-      </c>
-      <c r="D130" s="3">
+        <v>139</v>
+      </c>
+      <c r="D130" s="2">
         <v>66.625</v>
       </c>
       <c r="E130">
         <v>13.897794972443389</v>
       </c>
       <c r="F130" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>265</v>
+      <c r="A131" s="4">
+        <v>12000066488</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
-      </c>
-      <c r="D131" s="3">
+        <v>140</v>
+      </c>
+      <c r="D131" s="2">
         <v>68.285714285714292</v>
       </c>
       <c r="E131">
         <v>13.606536986260689</v>
       </c>
       <c r="F131" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>267</v>
+      <c r="A132" s="4">
+        <v>12200084066</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>268</v>
-      </c>
-      <c r="D132" s="3">
+        <v>141</v>
+      </c>
+      <c r="D132" s="2">
         <v>68.375</v>
       </c>
       <c r="E132">
         <v>8.7016334620819258</v>
       </c>
       <c r="F132" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>269</v>
+      <c r="A133" s="4">
+        <v>12200090719</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
-      </c>
-      <c r="D133" s="3">
+        <v>142</v>
+      </c>
+      <c r="D133" s="2">
         <v>69.333333333333329</v>
       </c>
       <c r="E133">
         <v>8.7961344166814861</v>
       </c>
       <c r="F133" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>12200141788</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
-      </c>
-      <c r="D134" s="3">
+        <v>143</v>
+      </c>
+      <c r="D134" s="2">
         <v>70.857142857142861</v>
       </c>
       <c r="E134">
         <v>8.3664967817043188</v>
       </c>
       <c r="F134" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>272</v>
+      <c r="A135" s="4">
+        <v>12000117164</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>273</v>
-      </c>
-      <c r="D135" s="3">
+        <v>144</v>
+      </c>
+      <c r="D135" s="2">
         <v>71.333333333333329</v>
       </c>
       <c r="E135">
         <v>8.909188231561691</v>
       </c>
       <c r="F135" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>274</v>
+      <c r="A136" s="4">
+        <v>12000001682</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
-      </c>
-      <c r="D136" s="3">
+        <v>145</v>
+      </c>
+      <c r="D136" s="2">
         <v>72.222222222222229</v>
       </c>
       <c r="E136">
         <v>8.445825223437053</v>
       </c>
       <c r="F136" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>276</v>
+      <c r="A137" s="4">
+        <v>12200005590</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>277</v>
-      </c>
-      <c r="D137" s="3">
+        <v>146</v>
+      </c>
+      <c r="D137" s="2">
         <v>74.166666666666671</v>
       </c>
       <c r="E137">
         <v>9.0897288213149974</v>
       </c>
       <c r="F137" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G137" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>278</v>
+      <c r="A138" s="4">
+        <v>12000085132</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
-      </c>
-      <c r="D138" s="3">
+        <v>147</v>
+      </c>
+      <c r="D138" s="2">
         <v>75.625</v>
       </c>
       <c r="E138">
         <v>9.1727352980276553</v>
       </c>
       <c r="F138" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>280</v>
+      <c r="A139" s="4">
+        <v>12200134271</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
-      </c>
-      <c r="D139" s="3">
+        <v>148</v>
+      </c>
+      <c r="D139" s="2">
         <v>77.222222222222229</v>
       </c>
       <c r="E139">
         <v>10.505179181021211</v>
       </c>
       <c r="F139" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>282</v>
+      <c r="A140" s="4">
+        <v>12200017765</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>283</v>
-      </c>
-      <c r="D140" s="3">
+        <v>149</v>
+      </c>
+      <c r="D140" s="2">
         <v>78.384615384615387</v>
       </c>
       <c r="E140">
         <v>9.335269183134363</v>
       </c>
       <c r="F140" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>284</v>
+      <c r="A141" s="4">
+        <v>12000150664</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>285</v>
-      </c>
-      <c r="D141" s="3">
+        <v>150</v>
+      </c>
+      <c r="D141" s="2">
         <v>78.666666666666671</v>
       </c>
       <c r="E141">
         <v>8.8316002581959889</v>
       </c>
       <c r="F141" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>286</v>
+      <c r="A142" s="4">
+        <v>12200134269</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>287</v>
-      </c>
-      <c r="D142" s="3">
+        <v>151</v>
+      </c>
+      <c r="D142" s="2">
         <v>79.25</v>
       </c>
       <c r="E142">
         <v>9.2027536602805178</v>
       </c>
       <c r="F142" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>288</v>
+      <c r="A143" s="4">
+        <v>12000036366</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>289</v>
-      </c>
-      <c r="D143" s="3">
+        <v>152</v>
+      </c>
+      <c r="D143" s="2">
         <v>80.333333333333329</v>
       </c>
       <c r="E143">
         <v>8.9254629509560122</v>
       </c>
       <c r="F143" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>290</v>
+      <c r="A144" s="4">
+        <v>12000055195</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>291</v>
-      </c>
-      <c r="D144" s="3">
+        <v>153</v>
+      </c>
+      <c r="D144" s="2">
         <v>81.888888888888886</v>
       </c>
       <c r="E144">
         <v>8.9999329036681761</v>
       </c>
       <c r="F144" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>292</v>
+      <c r="A145" s="4">
+        <v>12000010020</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>293</v>
-      </c>
-      <c r="D145" s="3">
+        <v>154</v>
+      </c>
+      <c r="D145" s="2">
         <v>86.666666666666671</v>
       </c>
       <c r="E145">
         <v>9.2734797135393663</v>
       </c>
       <c r="F145" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>294</v>
+      <c r="A146" s="4">
+        <v>12200055879</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>295</v>
-      </c>
-      <c r="D146" s="3">
+        <v>155</v>
+      </c>
+      <c r="D146" s="2">
         <v>90.75</v>
       </c>
       <c r="E146">
         <v>10.04579569022402</v>
       </c>
       <c r="F146" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>296</v>
+      <c r="A147" s="4">
+        <v>12200044502</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>297</v>
-      </c>
-      <c r="D147" s="3">
+        <v>156</v>
+      </c>
+      <c r="D147" s="2">
         <v>90.75</v>
       </c>
       <c r="E147">
         <v>10.117116518771081</v>
       </c>
       <c r="F147" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>298</v>
+      <c r="A148" s="4">
+        <v>12200067842</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D148" s="3">
+        <v>157</v>
+      </c>
+      <c r="D148" s="2">
         <v>91</v>
       </c>
       <c r="E148">
         <v>9.4955325082208795</v>
       </c>
       <c r="F148" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>300</v>
+      <c r="A149" s="4">
+        <v>12200063744</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>301</v>
-      </c>
-      <c r="D149" s="3">
+        <v>158</v>
+      </c>
+      <c r="D149" s="2">
         <v>96.833333333333329</v>
       </c>
       <c r="E149">
         <v>10.54359200816328</v>
       </c>
       <c r="F149" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>302</v>
+      <c r="A150" s="4">
+        <v>12200017519</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>303</v>
-      </c>
-      <c r="D150" s="3">
+        <v>159</v>
+      </c>
+      <c r="D150" s="2">
         <v>97.833333333333329</v>
       </c>
       <c r="E150">
         <v>9.8487856068382804</v>
       </c>
       <c r="F150" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>304</v>
+      <c r="A151" s="4">
+        <v>12200067892</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
-      </c>
-      <c r="D151" s="3">
+        <v>160</v>
+      </c>
+      <c r="D151" s="2">
         <v>98</v>
       </c>
       <c r="E151">
         <v>9.8589230653342668</v>
       </c>
       <c r="F151" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>306</v>
+      <c r="A152" s="4">
+        <v>12200067847</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>307</v>
-      </c>
-      <c r="D152" s="3">
+        <v>161</v>
+      </c>
+      <c r="D152" s="2">
         <v>98</v>
       </c>
       <c r="E152">
         <v>9.8589230653342668</v>
       </c>
       <c r="F152" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>308</v>
+      <c r="A153" s="4">
+        <v>12200091155</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>309</v>
-      </c>
-      <c r="D153" s="3">
+        <v>162</v>
+      </c>
+      <c r="D153" s="2">
         <v>99.333333333333329</v>
       </c>
       <c r="E153">
         <v>12.16637498368779</v>
       </c>
       <c r="F153" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>310</v>
+      <c r="A154" s="4">
+        <v>12200048748</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
-      </c>
-      <c r="D154" s="3">
+        <v>163</v>
+      </c>
+      <c r="D154" s="2">
         <v>99.666666666666671</v>
       </c>
       <c r="E154">
         <v>9.9497619500937713</v>
       </c>
       <c r="F154" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>312</v>
+      <c r="A155" s="4">
+        <v>12200151767</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>313</v>
-      </c>
-      <c r="D155" s="3">
+        <v>164</v>
+      </c>
+      <c r="D155" s="2">
         <v>101</v>
       </c>
       <c r="E155">
         <v>10.009915718846599</v>
       </c>
       <c r="F155" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G155" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>314</v>
+      <c r="A156" s="4">
+        <v>12200043376</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>315</v>
-      </c>
-      <c r="D156" s="3">
+        <v>165</v>
+      </c>
+      <c r="D156" s="2">
         <v>101.6666666666667</v>
       </c>
       <c r="E156">
         <v>10.546238635564089</v>
       </c>
       <c r="F156" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>316</v>
+      <c r="A157" s="4">
+        <v>12000033074</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>317</v>
-      </c>
-      <c r="D157" s="3">
+        <v>166</v>
+      </c>
+      <c r="D157" s="2">
         <v>106.625</v>
       </c>
       <c r="E157">
         <v>10.73423672636393</v>
       </c>
       <c r="F157" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>318</v>
+      <c r="A158" s="4">
+        <v>12000083164</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
-      </c>
-      <c r="D158" s="3">
+        <v>167</v>
+      </c>
+      <c r="D158" s="2">
         <v>106.75</v>
       </c>
       <c r="E158">
         <v>10.8575869110756</v>
       </c>
       <c r="F158" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G158" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>320</v>
+      <c r="A159" s="4">
+        <v>12000039430</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
-      </c>
-      <c r="D159" s="3">
+        <v>168</v>
+      </c>
+      <c r="D159" s="2">
         <v>107</v>
       </c>
       <c r="E159">
         <v>10.93440590289654</v>
       </c>
       <c r="F159" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>322</v>
+      <c r="A160" s="4">
+        <v>12200013385</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
-      </c>
-      <c r="D160" s="3">
+        <v>169</v>
+      </c>
+      <c r="D160" s="2">
         <v>107.2</v>
       </c>
       <c r="E160">
         <v>10.314965083455061</v>
       </c>
       <c r="F160" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>324</v>
+      <c r="A161" s="4">
+        <v>12000074502</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>325</v>
-      </c>
-      <c r="D161" s="3">
+        <v>170</v>
+      </c>
+      <c r="D161" s="2">
         <v>107.5</v>
       </c>
       <c r="E161">
         <v>12.01799066704255</v>
       </c>
       <c r="F161" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>326</v>
+      <c r="A162" s="4">
+        <v>12200032260</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
-      </c>
-      <c r="D162" s="3">
+        <v>171</v>
+      </c>
+      <c r="D162" s="2">
         <v>112</v>
       </c>
       <c r="E162">
         <v>11.12048898624443</v>
       </c>
       <c r="F162" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>328</v>
+      <c r="A163" s="4">
+        <v>12200029859</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>329</v>
-      </c>
-      <c r="D163" s="3">
+        <v>172</v>
+      </c>
+      <c r="D163" s="2">
         <v>114</v>
       </c>
       <c r="E163">
         <v>11.17206924984788</v>
       </c>
       <c r="F163" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>330</v>
+      <c r="A164" s="4">
+        <v>12200134266</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>331</v>
-      </c>
-      <c r="D164" s="3">
+        <v>173</v>
+      </c>
+      <c r="D164" s="2">
         <v>114.28571428571431</v>
       </c>
       <c r="E164">
         <v>17.899389360963038</v>
       </c>
       <c r="F164" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>332</v>
+      <c r="A165" s="4">
+        <v>12000016464</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>333</v>
-      </c>
-      <c r="D165" s="3">
+        <v>174</v>
+      </c>
+      <c r="D165" s="2">
         <v>114.3333333333333</v>
       </c>
       <c r="E165">
         <v>11.18849774329974</v>
       </c>
       <c r="F165" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>334</v>
+      <c r="A166" s="4">
+        <v>12000132638</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>335</v>
-      </c>
-      <c r="D166" s="3">
+        <v>175</v>
+      </c>
+      <c r="D166" s="2">
         <v>116.2</v>
       </c>
       <c r="E166">
         <v>11.582640963505851</v>
       </c>
       <c r="F166" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>336</v>
+      <c r="A167" s="4">
+        <v>12200013602</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>337</v>
-      </c>
-      <c r="D167" s="3">
+        <v>176</v>
+      </c>
+      <c r="D167" s="2">
         <v>116.5714285714286</v>
       </c>
       <c r="E167">
         <v>12.0752820491881</v>
       </c>
       <c r="F167" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>338</v>
+      <c r="A168" s="4">
+        <v>12000034803</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>339</v>
-      </c>
-      <c r="D168" s="3">
+        <v>177</v>
+      </c>
+      <c r="D168" s="2">
         <v>123.25</v>
       </c>
       <c r="E168">
         <v>11.927219160834269</v>
       </c>
       <c r="F168" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>340</v>
+      <c r="A169" s="4">
+        <v>12200190530</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>341</v>
-      </c>
-      <c r="D169" s="3">
+        <v>178</v>
+      </c>
+      <c r="D169" s="2">
         <v>125.3333333333333</v>
       </c>
       <c r="E169">
         <v>11.16534320515445</v>
       </c>
       <c r="F169" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>342</v>
+      <c r="A170" s="4">
+        <v>12200197507</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>343</v>
-      </c>
-      <c r="D170" s="3">
+        <v>179</v>
+      </c>
+      <c r="D170" s="2">
         <v>126.5</v>
       </c>
       <c r="E170">
         <v>11.21006544505066</v>
       </c>
       <c r="F170" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G170" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>344</v>
+      <c r="A171" s="4">
+        <v>12200000210</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>345</v>
-      </c>
-      <c r="D171" s="3">
+        <v>180</v>
+      </c>
+      <c r="D171" s="2">
         <v>127.25</v>
       </c>
       <c r="E171">
         <v>11.2471562460049</v>
       </c>
       <c r="F171" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>346</v>
+      <c r="A172" s="4">
+        <v>12200190534</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>347</v>
-      </c>
-      <c r="D172" s="3">
+        <v>181</v>
+      </c>
+      <c r="D172" s="2">
         <v>128.57142857142861</v>
       </c>
       <c r="E172">
         <v>11.30103235434515</v>
       </c>
       <c r="F172" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>348</v>
+      <c r="A173" s="4">
+        <v>12200269432</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>349</v>
-      </c>
-      <c r="D173" s="3">
+        <v>182</v>
+      </c>
+      <c r="D173" s="2">
         <v>129.5</v>
       </c>
       <c r="E173">
         <v>13.289547059094639</v>
       </c>
       <c r="F173" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>350</v>
+      <c r="A174" s="4">
+        <v>12200011143</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>351</v>
-      </c>
-      <c r="D174" s="3">
+        <v>183</v>
+      </c>
+      <c r="D174" s="2">
         <v>133</v>
       </c>
       <c r="E174">
         <v>11.49777348797253</v>
       </c>
       <c r="F174" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>352</v>
+      <c r="A175" s="4">
+        <v>12200190535</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>353</v>
-      </c>
-      <c r="D175" s="3">
+        <v>184</v>
+      </c>
+      <c r="D175" s="2">
         <v>135.4</v>
       </c>
       <c r="E175">
         <v>11.60167300728865</v>
       </c>
       <c r="F175" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>354</v>
+      <c r="A176" s="4">
+        <v>12000173362</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>355</v>
-      </c>
-      <c r="D176" s="3">
+        <v>185</v>
+      </c>
+      <c r="D176" s="2">
         <v>138.6</v>
       </c>
       <c r="E176">
         <v>11.73877523128527</v>
       </c>
       <c r="F176" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>356</v>
+      <c r="A177" s="4">
+        <v>12200012044</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>357</v>
-      </c>
-      <c r="D177" s="3">
+        <v>186</v>
+      </c>
+      <c r="D177" s="2">
         <v>147</v>
       </c>
       <c r="E177">
         <v>13.97612956490428</v>
       </c>
       <c r="F177" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G177" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>358</v>
+      <c r="A178" s="4">
+        <v>12200247229</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>359</v>
-      </c>
-      <c r="D178" s="3">
+        <v>187</v>
+      </c>
+      <c r="D178" s="2">
         <v>164.5</v>
       </c>
       <c r="E178">
         <v>13.546914929591409</v>
       </c>
       <c r="F178" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G178" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>360</v>
+      <c r="A179" s="4">
+        <v>12200247230</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>361</v>
-      </c>
-      <c r="D179" s="3">
+        <v>188</v>
+      </c>
+      <c r="D179" s="2">
         <v>165.25</v>
       </c>
       <c r="E179">
         <v>13.577883085772511</v>
       </c>
       <c r="F179" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G179" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>362</v>
+      <c r="A180" s="4">
+        <v>12000033814</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>363</v>
-      </c>
-      <c r="D180" s="3">
+        <v>189</v>
+      </c>
+      <c r="D180" s="2">
         <v>168.33333333333329</v>
       </c>
       <c r="E180">
         <v>17.30423919010671</v>
       </c>
       <c r="F180" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>364</v>
+      <c r="A181" s="4">
+        <v>12000003492</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>365</v>
-      </c>
-      <c r="D181" s="3">
+        <v>190</v>
+      </c>
+      <c r="D181" s="2">
         <v>170.33333333333329</v>
       </c>
       <c r="E181">
         <v>13.02556561064131</v>
       </c>
       <c r="F181" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>366</v>
+      <c r="A182" s="4">
+        <v>12200017786</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>367</v>
-      </c>
-      <c r="D182" s="3">
+        <v>191</v>
+      </c>
+      <c r="D182" s="2">
         <v>178.66666666666671</v>
       </c>
       <c r="E182">
         <v>13.341617364250849</v>
       </c>
       <c r="F182" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>368</v>
+      <c r="A183" s="4">
+        <v>12200264778</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>369</v>
-      </c>
-      <c r="D183" s="3">
+        <v>192</v>
+      </c>
+      <c r="D183" s="2">
         <v>183.8</v>
       </c>
       <c r="E183">
         <v>13.52771704835312</v>
       </c>
       <c r="F183" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G183" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>370</v>
+      <c r="A184" s="4">
+        <v>12200017778</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>371</v>
-      </c>
-      <c r="D184" s="3">
+        <v>193</v>
+      </c>
+      <c r="D184" s="2">
         <v>185</v>
       </c>
       <c r="E184">
         <v>13.57689691954303</v>
       </c>
       <c r="F184" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>372</v>
+      <c r="A185" s="4">
+        <v>12200062105</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>373</v>
-      </c>
-      <c r="D185" s="3">
+        <v>194</v>
+      </c>
+      <c r="D185" s="2">
         <v>201.33333333333329</v>
       </c>
       <c r="E185">
         <v>14.16564721724596</v>
       </c>
       <c r="F185" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>374</v>
+      <c r="A186" s="4">
+        <v>12200267277</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>375</v>
-      </c>
-      <c r="D186" s="3">
+        <v>195</v>
+      </c>
+      <c r="D186" s="2">
         <v>206.33333333333329</v>
       </c>
       <c r="E186">
         <v>14.34104556571851</v>
       </c>
       <c r="F186" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>376</v>
+      <c r="A187" s="4">
+        <v>12000044061</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>377</v>
-      </c>
-      <c r="D187" s="3">
+        <v>196</v>
+      </c>
+      <c r="D187" s="2">
         <v>216.5</v>
       </c>
       <c r="E187">
         <v>14.696899080846739</v>
       </c>
       <c r="F187" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>378</v>
+      <c r="A188" s="4">
+        <v>12200189551</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
-      </c>
-      <c r="D188" s="3">
+        <v>197</v>
+      </c>
+      <c r="D188" s="2">
         <v>334</v>
       </c>
       <c r="E188">
         <v>20.70885250320314</v>
       </c>
       <c r="F188" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>380</v>
+      <c r="A189" s="4">
+        <v>12200294325</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>381</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>382</v>
+        <v>198</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>383</v>
+      <c r="A190" s="4">
+        <v>12200131371</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>384</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>382</v>
+        <v>199</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>385</v>
+      <c r="A191" s="4">
+        <v>12200290750</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>386</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>382</v>
+        <v>200</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>387</v>
+      <c r="A192" s="4">
+        <v>12200274302</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>388</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>382</v>
+        <v>201</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>389</v>
+      <c r="A193" s="4">
+        <v>12200095611</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>390</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>382</v>
+        <v>202</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>391</v>
+      <c r="A194" s="4">
+        <v>12200274809</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>392</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>382</v>
+        <v>203</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>393</v>
+      <c r="A195" s="4">
+        <v>12200300536</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>394</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>382</v>
+        <v>204</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>395</v>
+      <c r="A196" s="4">
+        <v>12200137767</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>396</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>382</v>
+        <v>205</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>397</v>
+      <c r="A197" s="4">
+        <v>12200099915</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>398</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>382</v>
+        <v>206</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
